--- a/docs/centralized_cruise_DB_view_comments.xlsx
+++ b/docs/centralized_cruise_DB_view_comments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -42,18 +42,38 @@
 	This view is used to retrieve the group permissions for each user.  It returns all of the application users defined in the user authorization module and all associated groups they are assigned to.</t>
   </si>
   <si>
+    <t>CEN_CRUISE.CCD_CRUISES_SUMM_V</t>
+  </si>
+  <si>
+    <t>Research Cruise Leg Summary (View)
+This query returns all of the research cruises and their associated research vessels.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any)</t>
+  </si>
+  <si>
     <t>CEN_CRUISE.CCD_CRUISES_V</t>
   </si>
   <si>
-    <t>CTD Cruises (View)
-This query returns all of the CTD cruises and their associated research vessels where CTD data was collected including the formatted start and end dates</t>
-  </si>
-  <si>
-    <t>CEN_CRUISE.CCD_CRUISE_ALIASES_V</t>
-  </si>
-  <si>
-    <t>CTD Cruise Aliases (View)
-This query returns all of the CTD cruises, associated research vessels where CTD data was collected including the formatted start and end dates.  This query also returns the comma-delimited list of cruise name aliases for each cruise in alphabetical order</t>
+    <t>Research Cruises (View)
+This query returns all of the research cruises and their associated research vessels</t>
+  </si>
+  <si>
+    <t>CEN_CRUISE.CCD_CRUISE_LEGS_V</t>
+  </si>
+  <si>
+    <t>Research Cruise Legs (View)
+This query returns all research cruise legs including a comma-delimited list of associated regions for each leg</t>
+  </si>
+  <si>
+    <t>CEN_CRUISE.CCD_CRUISE_LEG_ALIASES_V</t>
+  </si>
+  <si>
+    <t>Research Cruise Leg Aliases (View)
+This query returns all of the CTD cruises, associated research vessels where CTD data was collected including the formatted start and end dates.  This query also returns the comma-delimited list of cruise leg name aliases for each cruise in alphabetical order</t>
+  </si>
+  <si>
+    <t>CEN_CRUISE.CCD_DATA_SETS_V</t>
+  </si>
+  <si>
+    <t>Research Cruise Data Sets (View)</t>
   </si>
   <si>
     <t>CEN_CRUISE.DB_UPGRADE_LOGS_V</t>
@@ -422,17 +442,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.5703125" customWidth="1"/>
+    <col min="2" max="2" width="108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -467,7 +487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -475,7 +495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -483,7 +503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -491,7 +511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -499,7 +519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -507,7 +527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -521,6 +541,30 @@
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +582,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/centralized_cruise_DB_view_comments.xlsx
+++ b/docs/centralized_cruise_DB_view_comments.xlsx
@@ -96,7 +96,7 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Application Users (View)
-	This view is used to retrieve the group permissions for a given user.  It returns all of the application users defined in the user authentication and authorization module including delimited lists of the groups that they are assigned to.  </t>
+This view is used to retrieve the group permissions for a given user.  It returns all of the application users defined in the user authentication and authorization module including delimited lists of the groups that they are assigned to.  </t>
         </is>
       </c>
     </row>
@@ -109,7 +109,7 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>Application User Groups (View)
-	This view is used to retrieve the group permissions for each user.  It returns all of the application users defined in the user authorization module and all associated groups they are assigned to.</t>
+This view is used to retrieve the group permissions for each user.  It returns all of the application users defined in the user authorization module and all associated groups they are assigned to.</t>
         </is>
       </c>
     </row>
@@ -193,117 +193,312 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.CCD_GEAR_PRE_V</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gear Presets (View)
+This view returns all gear presets and the associated gear information</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.CCD_LEG_DELIM_V</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Research Cruise Legs Delimited Reference Values (View)
 This query returns all of the research cruise legs and their associated reference tables (e.g. Vessel, Platform Type, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. regional ecosystems, gear, regions, leg aliases, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_V</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Research Cruise Legs (View)
 This query returns all research cruise legs and their associated reference tables</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_REGION_PRE_DELIM_V</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Region Preset Delimited Options (View)
+This view returns all region presets and delimited lists of associated region names</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_REGION_PRE_V</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Region Presets (View)
+This view returns all region presets and the associated region information</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_REG_ECO_PRE_DELIM_V</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Regional Ecosystem Preset Delimited Options (View)
+This view returns all regional ecosystem presets and delimited lists of associated regional ecosystem names</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_REG_ECO_PRE_V</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Regional Ecosystem Presets (View)
+This view returns all regional ecosystem presets and the associated regional ecosystem information</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_SPP_CAT_PRE_DELIM_V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Expected Species Categories Preset Delimited Options (View)
+This view returns all expected species category presets and delimited lists of associated expected species category names</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_SPP_CAT_PRE_V</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Expected Species Categories Presets (View)
+This view returns all Expected Species Categories Presets and the associated Expected Species Categories information</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_SPP_ESA_PRE_DELIM_V</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ESA Target Species Preset Delimited Options (View)
+This view returns all ESA Target Species presets and delimited lists of associated ESA Target Species names</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_SPP_ESA_PRE_V</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ESA Target Species Presets (View)
+This view returns all ESA Target Species Presets and the associated ESA Target Species information</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_DELIM_V</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FSSI Target Species Preset Delimited Options (View)
+This view returns all FSSI Target Species presets and delimited lists of associated FSSI Target Species names</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_V</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FSSI Target Species Presets (View)
+This view returns all FSSI Target Species Presets and the associated FSSI Target Species information</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_DELIM_V</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MMPA Target Species Preset Delimited Options (View)
+This view returns all MMPA Target Species presets and delimited lists of associated MMPA Target Species names</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_V</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MMPA Target Species Presets (View)
+This view returns all MMPA Target Species Presets and the associated MMPA Target Species information</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_SVY_CAT_PRE_DELIM_V</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Survey Category Preset Delimited Options (View)
+This view returns all Survey Category presets and delimited lists of associated Survey Category names</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_SVY_CAT_PRE_V</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Survey Category Presets (View)
+This view returns all primary and secondary survey category presets and the associated survey category information</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_LOG_ENTRIES_V</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Database Log Entries (View)
 This query returns all log entries stored in the DB_LOG_ENTRIES table that includes the associated DB_LOG_ENTRY_TYPES information for each log entry</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_UPGRADE_LOGS_V</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Database Upgrade Log (View)
-	This view returns the log of all database upgrades applied to a given database ordered by the date the upgrade was released.  This view includes formatted upgrade release and upgrade application dates</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+This view returns the log of all database upgrades applied to a given database ordered by the date the upgrade was released.  This view includes formatted upgrade release and upgrade application dates</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_DATA_STREAMS_V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Data Streams (View)
-	This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_ERRORS_V</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>PTA Errors (View)
-	This View returns all unresolved Errors associated with a given PTA Error record that were identified during the last evaluation of the associated PTA Error Types.  A PTA Error record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each error identified as well as general information about the given Error's Error Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+This View returns all unresolved Errors associated with a given PTA Error record that were identified during the last evaluation of the associated PTA Error Types.  A PTA Error record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each error identified as well as general information about the given Error's Error Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_ERROR_TYPES_V</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">PTA Error Types (View)
-	This View returns all Error Types associated with a given PTA Error Type record.  The PTA Error Type record is defined the first time the given data stream is first entered into the database, all active Error Types at this point in time are saved and associated with a new PTA Error Type record and this is referenced by a given parent record of a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Error Types that were associated with the a data stream when the given parent record is first entered into the database.  </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+This View returns all Error Types associated with a given PTA Error Type record.  The PTA Error Type record is defined the first time the given data stream is first entered into the database, all active Error Types at this point in time are saved and associated with a new PTA Error Type record and this is referenced by a given parent record of a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Error Types that were associated with the a data stream when the given parent record is first entered into the database.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_QC_CRITERIA_V</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>QC Criteria (View)
-	This View returns all QC Criteria (Error Types) defined in the database and their associated QC Object, Error Severity, and Error Category.  This query is used to define all PTA Error Types when a data stream is first entered into the database</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+This View returns all QC Criteria (Error Types) defined in the database and their associated QC Object, Error Severity, and Error Category.  This query is used to define all PTA Error Types when a data stream is first entered into the database</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_QC_MSG_MISS_FIELDS_V</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Data Validation Module Missing Template Field References QC (View)
-	This query returns all error types (DVM_ERROR_TYPES) that have a ERR_TYPE_COMMENT_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary).  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_VIEW_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object</t>
+This query returns all error types (DVM_ERROR_TYPES) that have a ERR_TYPE_COMMENT_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary).  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_VIEW_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object</t>
         </is>
       </c>
     </row>

--- a/docs/centralized_cruise_DB_view_comments.xlsx
+++ b/docs/centralized_cruise_DB_view_comments.xlsx
@@ -193,309 +193,348 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.CCD_GEAR_PRE_DELIM_V</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gear Preset Delimited Options (View)
+This view returns all Gear presets and delimited lists of associated Gear names</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.CCD_GEAR_PRE_V</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Gear Presets (View)
 This view returns all gear presets and the associated gear information</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_DELIM_V</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Research Cruise Legs Delimited Reference Values (View)
 This query returns all of the research cruise legs and their associated reference tables (e.g. Vessel, Platform Type, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. regional ecosystems, gear, regions, leg aliases, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_V</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Research Cruise Legs (View)
 This query returns all research cruise legs and their associated reference tables</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REGION_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Region Preset Delimited Options (View)
 This view returns all region presets and delimited lists of associated region names</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REGION_PRE_V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Region Presets (View)
 This view returns all region presets and the associated region information</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REG_ECO_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Regional Ecosystem Preset Delimited Options (View)
 This view returns all regional ecosystem presets and delimited lists of associated regional ecosystem names</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REG_ECO_PRE_V</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Regional Ecosystem Presets (View)
 This view returns all regional ecosystem presets and the associated regional ecosystem information</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_SCI_CENTER_DELIM_V</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Science Center Delimited Divisions (View)
+This view returns all Science Centers and delimited lists of associated divisions</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_SCI_CENTER_DIV_V</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Gear Preset Delimited Options (View)
+This view returns all Gear presets and delimited lists of associated Gear names</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_CAT_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Expected Species Categories Preset Delimited Options (View)
 This view returns all expected species category presets and delimited lists of associated expected species category names</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_CAT_PRE_V</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Expected Species Categories Presets (View)
 This view returns all Expected Species Categories Presets and the associated Expected Species Categories information</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_ESA_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>ESA Target Species Preset Delimited Options (View)
 This view returns all ESA Target Species presets and delimited lists of associated ESA Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_ESA_PRE_V</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>ESA Target Species Presets (View)
 This view returns all ESA Target Species Presets and the associated ESA Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>FSSI Target Species Preset Delimited Options (View)
 This view returns all FSSI Target Species presets and delimited lists of associated FSSI Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_V</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>FSSI Target Species Presets (View)
 This view returns all FSSI Target Species Presets and the associated FSSI Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>MMPA Target Species Preset Delimited Options (View)
 This view returns all MMPA Target Species presets and delimited lists of associated MMPA Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_V</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>MMPA Target Species Presets (View)
 This view returns all MMPA Target Species Presets and the associated MMPA Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SVY_CAT_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Survey Category Preset Delimited Options (View)
 This view returns all Survey Category presets and delimited lists of associated Survey Category names</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SVY_CAT_PRE_V</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Survey Category Presets (View)
 This view returns all primary and secondary survey category presets and the associated survey category information</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_LOG_ENTRIES_V</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Database Log Entries (View)
 This query returns all log entries stored in the DB_LOG_ENTRIES table that includes the associated DB_LOG_ENTRY_TYPES information for each log entry</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_UPGRADE_LOGS_V</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Database Upgrade Log (View)
 This view returns the log of all database upgrades applied to a given database ordered by the date the upgrade was released.  This view includes formatted upgrade release and upgrade application dates</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_DATA_STREAMS_V</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Data Streams (View)
 This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_ERRORS_V</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>PTA Errors (View)
 This View returns all unresolved Errors associated with a given PTA Error record that were identified during the last evaluation of the associated PTA Error Types.  A PTA Error record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each error identified as well as general information about the given Error's Error Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_ERROR_TYPES_V</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">PTA Error Types (View)
 This View returns all Error Types associated with a given PTA Error Type record.  The PTA Error Type record is defined the first time the given data stream is first entered into the database, all active Error Types at this point in time are saved and associated with a new PTA Error Type record and this is referenced by a given parent record of a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Error Types that were associated with the a data stream when the given parent record is first entered into the database.  </t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_QC_CRITERIA_V</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>QC Criteria (View)
 This View returns all QC Criteria (Error Types) defined in the database and their associated QC Object, Error Severity, and Error Category.  This query is used to define all PTA Error Types when a data stream is first entered into the database</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_QC_MSG_MISS_FIELDS_V</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Data Validation Module Missing Template Field References QC (View)
 This query returns all error types (DVM_ERROR_TYPES) that have a ERR_TYPE_COMMENT_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary).  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_VIEW_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object</t>

--- a/docs/centralized_cruise_DB_view_comments.xlsx
+++ b/docs/centralized_cruise_DB_view_comments.xlsx
@@ -155,386 +155,451 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.CCD_CRUISE_SUMM_ERR_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Research Cruise Leg Summary (View)
+This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions).  This view also contains summary information for any associated QC validation issues in the categories of warnings, active errors and annotated errors</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.CCD_CRUISE_SUMM_V</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Research Cruise Leg Summary (View)
 This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_V</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Research Cruises (View)
 This query returns all of the research cruises and their associated reference tables (e.g. Science Center, standard survey name, survey frequency, etc.) as well as aggregate information from the associated cruise legs</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CEN_CRUISE.CCD_DATA_SETS_V</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Research Cruise Data Sets (View)</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.CCD_DATA_SETS_V</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Research Cruise Data Sets (View)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.CCD_GEAR_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Gear Preset Delimited Options (View)
 This view returns all Gear presets and delimited lists of associated Gear names</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_GEAR_PRE_V</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Gear Presets (View)
 This view returns all gear presets and the associated gear information</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_DELIM_V</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Research Cruise Legs Delimited Reference Values (View)
 This query returns all of the research cruise legs and their associated reference tables (e.g. Vessel, Platform Type, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. regional ecosystems, gear, regions, leg aliases, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_V</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Research Cruise Legs (View)
 This query returns all research cruise legs and their associated reference tables</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_QC_CRUISE_V</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cruise (QC View)
+This query identifies data validation issues with Cruises (e.g. invalid standard survey name, invalid cruise name, etc.).  This QC View is implemented in the Data Validation Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_QC_LEG_ALIAS_V</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Leg Alias (QC View)
+This query identifies data validation issues with Cruise Leg Aliases (e.g. invalid alias name).  This QC View is implemented in the Data Validation Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_QC_LEG_OVERLAP_V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cruise Leg Overlap (QC View)
+This query identifies data validation issues based on the cruise leg dates (e.g. cruise legs overlap, vessel legs overlap).  This QC View is implemented in the Data Validation Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_QC_LEG_V</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cruise Leg (QC View)
+This query identifies data validation issues with Cruise Legs (e.g. invalid leg dates, invalid leg name, etc.).  This QC View is implemented in the Data Validation Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REGION_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Region Preset Delimited Options (View)
 This view returns all region presets and delimited lists of associated region names</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REGION_PRE_V</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Region Presets (View)
 This view returns all region presets and the associated region information</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REG_ECO_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Regional Ecosystem Preset Delimited Options (View)
 This view returns all regional ecosystem presets and delimited lists of associated regional ecosystem names</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REG_ECO_PRE_V</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Regional Ecosystem Presets (View)
 This view returns all regional ecosystem presets and the associated regional ecosystem information</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SCI_CENTER_DELIM_V</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Science Center Delimited Divisions (View)
 This view returns all Science Centers and delimited lists of associated divisions</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SCI_CENTER_DIV_V</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Gear Preset Delimited Options (View)
-This view returns all Gear presets and delimited lists of associated Gear names</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Science Center Divisions (View)
+This view returns all science centers and associated divisions</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_CAT_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Expected Species Categories Preset Delimited Options (View)
 This view returns all expected species category presets and delimited lists of associated expected species category names</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_CAT_PRE_V</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Expected Species Categories Presets (View)
 This view returns all Expected Species Categories Presets and the associated Expected Species Categories information</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_ESA_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>ESA Target Species Preset Delimited Options (View)
 This view returns all ESA Target Species presets and delimited lists of associated ESA Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_ESA_PRE_V</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>ESA Target Species Presets (View)
 This view returns all ESA Target Species Presets and the associated ESA Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>FSSI Target Species Preset Delimited Options (View)
 This view returns all FSSI Target Species presets and delimited lists of associated FSSI Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_V</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>FSSI Target Species Presets (View)
 This view returns all FSSI Target Species Presets and the associated FSSI Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>MMPA Target Species Preset Delimited Options (View)
 This view returns all MMPA Target Species presets and delimited lists of associated MMPA Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_V</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>MMPA Target Species Presets (View)
 This view returns all MMPA Target Species Presets and the associated MMPA Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SVY_CAT_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Survey Category Preset Delimited Options (View)
 This view returns all Survey Category presets and delimited lists of associated Survey Category names</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SVY_CAT_PRE_V</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Survey Category Presets (View)
 This view returns all primary and secondary survey category presets and the associated survey category information</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_LOG_ENTRIES_V</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Database Log Entries (View)
 This query returns all log entries stored in the DB_LOG_ENTRIES table that includes the associated DB_LOG_ENTRY_TYPES information for each log entry</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_UPGRADE_LOGS_V</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Database Upgrade Log (View)
 This view returns the log of all database upgrades applied to a given database ordered by the date the upgrade was released.  This view includes formatted upgrade release and upgrade application dates</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_DATA_STREAMS_V</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Data Streams (View)
 This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_ERRORS_V</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>PTA Errors (View)
 This View returns all unresolved Errors associated with a given PTA Error record that were identified during the last evaluation of the associated PTA Error Types.  A PTA Error record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each error identified as well as general information about the given Error's Error Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_ERROR_TYPES_V</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">PTA Error Types (View)
 This View returns all Error Types associated with a given PTA Error Type record.  The PTA Error Type record is defined the first time the given data stream is first entered into the database, all active Error Types at this point in time are saved and associated with a new PTA Error Type record and this is referenced by a given parent record of a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Error Types that were associated with the a data stream when the given parent record is first entered into the database.  </t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_QC_CRITERIA_V</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>QC Criteria (View)
 This View returns all QC Criteria (Error Types) defined in the database and their associated QC Object, Error Severity, and Error Category.  This query is used to define all PTA Error Types when a data stream is first entered into the database</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_QC_MSG_MISS_FIELDS_V</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Data Validation Module Missing Template Field References QC (View)
 This query returns all error types (DVM_ERROR_TYPES) that have a ERR_TYPE_COMMENT_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary).  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_VIEW_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object</t>

--- a/docs/centralized_cruise_DB_view_comments.xlsx
+++ b/docs/centralized_cruise_DB_view_comments.xlsx
@@ -129,480 +129,493 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.CCD_CRUISE_ERR_SUMM_V</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Research Cruise Leg Error Summary (View)
+This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions).  This view also contains summary information for any associated QC validation issues in the categories of warnings, active errors and annotated errors</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.CCD_CRUISE_LEGS_V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Research Cruises and Associated Cruise Legs (View)
 This query returns all research cruise legs and their associated reference tables as well as all associated cruise legs with their associated reference tables</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_LEG_DELIM_V</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Research Cruises and Associated Legs with Delimited Reference Values (View)
 This query returns all of the research cruises and their associated reference tables (e.g. Science Center, standard survey name, survey frequency, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. ESA species, primary survey categories, etc.) as well as all associated research cruise legs and their associated reference tables (e.g. Vessel, Platform Type, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. regional ecosystems, gear, regions, leg aliases, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CEN_CRUISE.CCD_CRUISE_SUMM_ERR_V</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Research Cruise Leg Summary (View)
-This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions).  This view also contains summary information for any associated QC validation issues in the categories of warnings, active errors and annotated errors</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.CCD_CRUISE_SUMM_ERR_V</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cruise Summary and Associated Validation Errors (View)
+This view returns the Cruise summary data and associated validation issues from the DVM that have one or more validation errors/warnings</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.CCD_CRUISE_SUMM_V</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Research Cruise Leg Summary (View)
 This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions)</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_V</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Research Cruises (View)
 This query returns all of the research cruises and their associated reference tables (e.g. Science Center, standard survey name, survey frequency, etc.) as well as aggregate information from the associated cruise legs</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CEN_CRUISE.CCD_DATA_SETS_V</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Research Cruise Data Sets (View)</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.CCD_DATA_SETS_V</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Research Cruise Data Sets (View)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.CCD_GEAR_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Gear Preset Delimited Options (View)
 This view returns all Gear presets and delimited lists of associated Gear names</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_GEAR_PRE_V</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Gear Presets (View)
 This view returns all gear presets and the associated gear information</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_DELIM_V</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Research Cruise Legs Delimited Reference Values (View)
 This query returns all of the research cruise legs and their associated reference tables (e.g. Vessel, Platform Type, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. regional ecosystems, gear, regions, leg aliases, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Research Cruise Legs (View)
 This query returns all research cruise legs and their associated reference tables</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_CRUISE_V</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Cruise (QC View)
 This query identifies data validation issues with Cruises (e.g. invalid standard survey name, invalid cruise name, etc.).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_LEG_ALIAS_V</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Leg Alias (QC View)
 This query identifies data validation issues with Cruise Leg Aliases (e.g. invalid alias name).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_LEG_OVERLAP_V</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Cruise Leg Overlap (QC View)
 This query identifies data validation issues based on the cruise leg dates (e.g. cruise legs overlap, vessel legs overlap).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_LEG_V</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Cruise Leg (QC View)
 This query identifies data validation issues with Cruise Legs (e.g. invalid leg dates, invalid leg name, etc.).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REGION_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Region Preset Delimited Options (View)
 This view returns all region presets and delimited lists of associated region names</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REGION_PRE_V</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Region Presets (View)
 This view returns all region presets and the associated region information</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REG_ECO_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Regional Ecosystem Preset Delimited Options (View)
 This view returns all regional ecosystem presets and delimited lists of associated regional ecosystem names</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REG_ECO_PRE_V</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Regional Ecosystem Presets (View)
 This view returns all regional ecosystem presets and the associated regional ecosystem information</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SCI_CENTER_DELIM_V</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Science Center Delimited Divisions (View)
 This view returns all Science Centers and delimited lists of associated divisions</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SCI_CENTER_DIV_V</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Science Center Divisions (View)
 This view returns all science centers and associated divisions</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_CAT_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Expected Species Categories Preset Delimited Options (View)
 This view returns all expected species category presets and delimited lists of associated expected species category names</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_CAT_PRE_V</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Expected Species Categories Presets (View)
 This view returns all Expected Species Categories Presets and the associated Expected Species Categories information</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_ESA_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>ESA Target Species Preset Delimited Options (View)
 This view returns all ESA Target Species presets and delimited lists of associated ESA Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_ESA_PRE_V</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>ESA Target Species Presets (View)
 This view returns all ESA Target Species Presets and the associated ESA Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>FSSI Target Species Preset Delimited Options (View)
 This view returns all FSSI Target Species presets and delimited lists of associated FSSI Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_V</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>FSSI Target Species Presets (View)
 This view returns all FSSI Target Species Presets and the associated FSSI Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>MMPA Target Species Preset Delimited Options (View)
 This view returns all MMPA Target Species presets and delimited lists of associated MMPA Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_V</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>MMPA Target Species Presets (View)
 This view returns all MMPA Target Species Presets and the associated MMPA Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SVY_CAT_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Survey Category Preset Delimited Options (View)
 This view returns all Survey Category presets and delimited lists of associated Survey Category names</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SVY_CAT_PRE_V</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Survey Category Presets (View)
 This view returns all primary and secondary survey category presets and the associated survey category information</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_LOG_ENTRIES_V</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Database Log Entries (View)
 This query returns all log entries stored in the DB_LOG_ENTRIES table that includes the associated DB_LOG_ENTRY_TYPES information for each log entry</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_UPGRADE_LOGS_V</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Database Upgrade Log (View)
 This view returns the log of all database upgrades applied to a given database ordered by the date the upgrade was released.  This view includes formatted upgrade release and upgrade application dates</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_DATA_STREAMS_V</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Data Streams (View)
 This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_ERRORS_V</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>PTA Errors (View)
 This View returns all unresolved Errors associated with a given PTA Error record that were identified during the last evaluation of the associated PTA Error Types.  A PTA Error record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each error identified as well as general information about the given Error's Error Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_ERROR_TYPES_V</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">PTA Error Types (View)
 This View returns all Error Types associated with a given PTA Error Type record.  The PTA Error Type record is defined the first time the given data stream is first entered into the database, all active Error Types at this point in time are saved and associated with a new PTA Error Type record and this is referenced by a given parent record of a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Error Types that were associated with the a data stream when the given parent record is first entered into the database.  </t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_QC_CRITERIA_V</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>QC Criteria (View)
 This View returns all QC Criteria (Error Types) defined in the database and their associated QC Object, Error Severity, and Error Category.  This query is used to define all PTA Error Types when a data stream is first entered into the database</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_QC_MSG_MISS_FIELDS_V</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Data Validation Module Missing Template Field References QC (View)
-This query returns all error types (DVM_ERROR_TYPES) that have a ERR_TYPE_COMMENT_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary).  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_VIEW_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object</t>
+This query returns all error types (DVM_ERROR_TYPES) that have a ERR_TYPE_COMMENT_TEMPLATE or APP_LINK_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary). The [APP_ID] and [APP_SESSION] are special reserved placeholders that are intended to be used by a given APEX application and replaced at runtime by the APEX application variables so they are not identified in this QC query.  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_ERR_DESC_FIELDS and MISSING_APP_LINK_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object for the error description templates and application link templates respectively.</t>
         </is>
       </c>
     </row>

--- a/docs/centralized_cruise_DB_view_comments.xlsx
+++ b/docs/centralized_cruise_DB_view_comments.xlsx
@@ -18,7 +18,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm AM/PM"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11.0"/>
@@ -52,11 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -129,12 +134,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CEN_CRUISE.CCD_CRUISE_ERR_SUMM_V</t>
+          <t>CEN_CRUISE.CCD_CRUISE_ISS_SUMM_V</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Research Cruise Leg Error Summary (View)
+          <t>Research Cruise Leg Validation Issue Summary (View)
 This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions).  This view also contains summary information for any associated QC validation issues in the categories of warnings, active errors and annotated errors</t>
         </is>
       </c>
@@ -168,12 +173,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CEN_CRUISE.CCD_CRUISE_SUMM_ERR_V</t>
+          <t>CEN_CRUISE.CCD_CRUISE_SUMM_ISS_V</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cruise Summary and Associated Validation Errors (View)
+          <t>Cruise Summary and Associated Validation Issues (View)
 This view returns the Cruise summary data and associated validation issues from the DVM that have one or more validation errors/warnings</t>
         </is>
       </c>
@@ -557,65 +562,91 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.DVM_CRITERIA_V</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Data Validation QC Criteria (View)
+This View returns all QC Criteria (Issue Types) defined in the database and their associated QC Object, Issue Severity, and Issue Category.  This query is used to define all PTA Issue Types when a data stream is first entered into the database</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.DVM_DATA_STREAMS_V</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Data Streams (View)
 This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>CEN_CRUISE.DVM_PTA_ERRORS_V</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>PTA Errors (View)
-This View returns all unresolved Errors associated with a given PTA Error record that were identified during the last evaluation of the associated PTA Error Types.  A PTA Error record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each error identified as well as general information about the given Error's Error Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
-        </is>
-      </c>
-    </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CEN_CRUISE.DVM_PTA_ERROR_TYPES_V</t>
+          <t>CEN_CRUISE.DVM_PTA_ISSUES_V</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">PTA Error Types (View)
-This View returns all Error Types associated with a given PTA Error Type record.  The PTA Error Type record is defined the first time the given data stream is first entered into the database, all active Error Types at this point in time are saved and associated with a new PTA Error Type record and this is referenced by a given parent record of a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Error Types that were associated with the a data stream when the given parent record is first entered into the database.  </t>
+          <t>PTA Issues (View)
+This View returns all unresolved Issues associated with a given PTA Validation Issue record that were identified during the last evaluation of the associated Validation Issue Types.  A PTA Validation Issue record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each issue identified as well as general information about the given Validation Issue's Issue Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CEN_CRUISE.DVM_QC_CRITERIA_V</t>
+          <t>CEN_CRUISE.DVM_PTA_ISS_TYPES_V</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>QC Criteria (View)
-This View returns all QC Criteria (Error Types) defined in the database and their associated QC Object, Error Severity, and Error Category.  This query is used to define all PTA Error Types when a data stream is first entered into the database</t>
+          <t xml:space="preserve">PTA Issue Types (View)
+This View returns all Issue Types associated with a given PTA Issue Type record.  The PTA Issue Type record is defined the first time the given data stream is first entered into the database, all active Issue Types at this point in time are saved and associated with a new PTA Issue Type record and this is referenced by a given parent record of a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Issue Types that were associated with the a data stream when the given parent record is first entered into the database.  </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.DVM_PTA_RULE_SETS_V</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DVM PTA Rule Sets (View)
+This view returns all of the rule sets and associated data streams as well as all PTA rule sets to provide information about which parent issue records have been evaluated with which rule sets</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.DVM_QC_MSG_MISS_FIELDS_V</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Data Validation Module Missing Template Field References QC (View)
-This query returns all error types (DVM_ERROR_TYPES) that have a ERR_TYPE_COMMENT_TEMPLATE or APP_LINK_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary). The [APP_ID] and [APP_SESSION] are special reserved placeholders that are intended to be used by a given APEX application and replaced at runtime by the APEX application variables so they are not identified in this QC query.  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_ERR_DESC_FIELDS and MISSING_APP_LINK_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object for the error description templates and application link templates respectively.</t>
+This query returns all issue types (DVM_ISS_TYPES) that have a ISS_TYPE_COMMENT_TEMPLATE or APP_LINK_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary). The [APP_ID] and [APP_SESSION] are special reserved placeholders that are intended to be used by a given APEX application and replaced at runtime by the APEX application variables so they are not identified in this QC query.  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_ISS_DESC_FIELDS and MISSING_APP_LINK_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object for the issue description templates and application link templates respectively.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_RULE_SETS_V</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Data Validation Rule Sets (View)
+This View returns all Data Validation Rule Sets and associated validation criteria</t>
         </is>
       </c>
     </row>

--- a/docs/centralized_cruise_DB_view_comments.xlsx
+++ b/docs/centralized_cruise_DB_view_comments.xlsx
@@ -18,10 +18,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm AM/PM"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11.0"/>
@@ -55,13 +52,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -134,516 +129,529 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.CCD_CRUISE_DVM_RULES_V</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cruise DVM Rules (View)
+This view returns all of the DVM PTA validation rule sets and all related validation rule set information and cruise information</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.CCD_CRUISE_ISS_SUMM_V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Research Cruise Leg Validation Issue Summary (View)
 This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions).  This view also contains summary information for any associated QC validation issues in the categories of warnings, active errors and annotated errors</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_LEGS_V</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Research Cruises and Associated Cruise Legs (View)
 This query returns all research cruise legs and their associated reference tables as well as all associated cruise legs with their associated reference tables</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_LEG_DELIM_V</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Research Cruises and Associated Legs with Delimited Reference Values (View)
 This query returns all of the research cruises and their associated reference tables (e.g. Science Center, standard survey name, survey frequency, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. ESA species, primary survey categories, etc.) as well as all associated research cruise legs and their associated reference tables (e.g. Vessel, Platform Type, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. regional ecosystems, gear, regions, leg aliases, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_SUMM_ISS_V</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Cruise Summary and Associated Validation Issues (View)
 This view returns the Cruise summary data and associated validation issues from the DVM that have one or more validation errors/warnings</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_SUMM_V</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Research Cruise Leg Summary (View)
 This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_V</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Research Cruises (View)
 This query returns all of the research cruises and their associated reference tables (e.g. Science Center, standard survey name, survey frequency, etc.) as well as aggregate information from the associated cruise legs</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CEN_CRUISE.CCD_DATA_SETS_V</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Research Cruise Data Sets (View)</t>
-        </is>
-      </c>
-    </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.CCD_DATA_SETS_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Research Cruise Data Sets (View)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.CCD_GEAR_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Gear Preset Delimited Options (View)
 This view returns all Gear presets and delimited lists of associated Gear names</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_GEAR_PRE_V</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Gear Presets (View)
 This view returns all gear presets and the associated gear information</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_DELIM_V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Research Cruise Legs Delimited Reference Values (View)
 This query returns all of the research cruise legs and their associated reference tables (e.g. Vessel, Platform Type, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. regional ecosystems, gear, regions, leg aliases, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_V</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Research Cruise Legs (View)
 This query returns all research cruise legs and their associated reference tables</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_CRUISE_V</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Cruise (QC View)
 This query identifies data validation issues with Cruises (e.g. invalid standard survey name, invalid cruise name, etc.).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_LEG_ALIAS_V</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Leg Alias (QC View)
 This query identifies data validation issues with Cruise Leg Aliases (e.g. invalid alias name).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_LEG_OVERLAP_V</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Cruise Leg Overlap (QC View)
 This query identifies data validation issues based on the cruise leg dates (e.g. cruise legs overlap, vessel legs overlap).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_LEG_V</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Cruise Leg (QC View)
 This query identifies data validation issues with Cruise Legs (e.g. invalid leg dates, invalid leg name, etc.).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REGION_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Region Preset Delimited Options (View)
 This view returns all region presets and delimited lists of associated region names</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REGION_PRE_V</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Region Presets (View)
 This view returns all region presets and the associated region information</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REG_ECO_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Regional Ecosystem Preset Delimited Options (View)
 This view returns all regional ecosystem presets and delimited lists of associated regional ecosystem names</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REG_ECO_PRE_V</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Regional Ecosystem Presets (View)
 This view returns all regional ecosystem presets and the associated regional ecosystem information</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SCI_CENTER_DELIM_V</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Science Center Delimited Divisions (View)
 This view returns all Science Centers and delimited lists of associated divisions</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SCI_CENTER_DIV_V</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Science Center Divisions (View)
 This view returns all science centers and associated divisions</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_CAT_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Expected Species Categories Preset Delimited Options (View)
 This view returns all expected species category presets and delimited lists of associated expected species category names</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_CAT_PRE_V</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Expected Species Categories Presets (View)
 This view returns all Expected Species Categories Presets and the associated Expected Species Categories information</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_ESA_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>ESA Target Species Preset Delimited Options (View)
 This view returns all ESA Target Species presets and delimited lists of associated ESA Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_ESA_PRE_V</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>ESA Target Species Presets (View)
 This view returns all ESA Target Species Presets and the associated ESA Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>FSSI Target Species Preset Delimited Options (View)
 This view returns all FSSI Target Species presets and delimited lists of associated FSSI Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_V</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>FSSI Target Species Presets (View)
 This view returns all FSSI Target Species Presets and the associated FSSI Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>MMPA Target Species Preset Delimited Options (View)
 This view returns all MMPA Target Species presets and delimited lists of associated MMPA Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_V</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>MMPA Target Species Presets (View)
 This view returns all MMPA Target Species Presets and the associated MMPA Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SVY_CAT_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Survey Category Preset Delimited Options (View)
 This view returns all Survey Category presets and delimited lists of associated Survey Category names</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SVY_CAT_PRE_V</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Survey Category Presets (View)
 This view returns all primary and secondary survey category presets and the associated survey category information</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_LOG_ENTRIES_V</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Database Log Entries (View)
 This query returns all log entries stored in the DB_LOG_ENTRIES table that includes the associated DB_LOG_ENTRY_TYPES information for each log entry</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_UPGRADE_LOGS_V</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Database Upgrade Log (View)
 This view returns the log of all database upgrades applied to a given database ordered by the date the upgrade was released.  This view includes formatted upgrade release and upgrade application dates</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_CRITERIA_V</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Data Validation QC Criteria (View)
 This View returns all QC Criteria (Issue Types) defined in the database and their associated QC Object, Issue Severity, and Issue Category.  This query is used to define all PTA Issue Types when a data stream is first entered into the database</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>CEN_CRUISE.DVM_DATA_STREAMS_V</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Data Streams (View)
-This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary</t>
-        </is>
-      </c>
-    </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CEN_CRUISE.DVM_PTA_ISSUES_V</t>
+          <t>CEN_CRUISE.DVM_DATA_STREAMS_V</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PTA Issues (View)
-This View returns all unresolved Issues associated with a given PTA Validation Issue record that were identified during the last evaluation of the associated Validation Issue Types.  A PTA Validation Issue record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each issue identified as well as general information about the given Validation Issue's Issue Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
+          <t>Data Streams (View)
+This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary and determines if the parent table exists and if the parent table has been enabled in the DVM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CEN_CRUISE.DVM_PTA_ISS_TYPES_V</t>
+          <t>CEN_CRUISE.DVM_PTA_ISSUES_V</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">PTA Issue Types (View)
-This View returns all Issue Types associated with a given PTA Issue Type record.  The PTA Issue Type record is defined the first time the given data stream is first entered into the database, all active Issue Types at this point in time are saved and associated with a new PTA Issue Type record and this is referenced by a given parent record of a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Issue Types that were associated with the a data stream when the given parent record is first entered into the database.  </t>
+          <t>PTA Issues (View)
+This View returns all Validation Issues associated with a given PTA Validation Issue record that were identified during the last evaluation of the associated Validation Issue Types.  A PTA Validation Issue record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each issue identified as well as general information about the given Validation Issue's Issue Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.DVM_PTA_ISS_TYPES_V</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PTA Issue Types (View)
+This View retrieves all Validation Rule Sets and corresponding Validation Rules for a given Parent Issue Record and corresponding data stream(s).  The associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Issue Types that were associated with the data stream when the given parent record is first evaluated using the DVM</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.DVM_PTA_RULE_SETS_V</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>DVM PTA Rule Sets (View)
 This view returns all of the rule sets and associated data streams as well as all PTA rule sets to provide information about which parent issue records have been evaluated with which rule sets</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_QC_MSG_MISS_FIELDS_V</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Data Validation Module Missing Template Field References QC (View)
 This query returns all issue types (DVM_ISS_TYPES) that have a ISS_TYPE_COMMENT_TEMPLATE or APP_LINK_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary). The [APP_ID] and [APP_SESSION] are special reserved placeholders that are intended to be used by a given APEX application and replaced at runtime by the APEX application variables so they are not identified in this QC query.  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_ISS_DESC_FIELDS and MISSING_APP_LINK_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object for the issue description templates and application link templates respectively.</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_RULE_SETS_V</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Data Validation Rule Sets (View)
 This View returns all Data Validation Rule Sets and associated validation criteria</t>

--- a/docs/centralized_cruise_DB_view_comments.xlsx
+++ b/docs/centralized_cruise_DB_view_comments.xlsx
@@ -129,529 +129,581 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.CCD_CRUISE_DVM_RULES_RPT_V</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cruise DVM Rules Report (View)
+This view returns all of the DVM PTA validation rule sets and all related validation rule set information and cruise information.  This query generates a standard validation rule report that can be included with the data set metadata or as an internal report to provide the specific data quality control criteria that was used to validate each cruise record if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.CCD_CRUISE_DVM_RULES_V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Cruise DVM Rules (View)
 This view returns all of the DVM PTA validation rule sets and all related validation rule set information and cruise information</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_ISS_SUMM_V</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Research Cruise Leg Validation Issue Summary (View)
 This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions).  This view also contains summary information for any associated QC validation issues in the categories of warnings, active errors and annotated errors</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_LEGS_V</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Research Cruises and Associated Cruise Legs (View)
 This query returns all research cruise legs and their associated reference tables as well as all associated cruise legs with their associated reference tables</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_LEG_DELIM_V</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Research Cruises and Associated Legs with Delimited Reference Values (View)
 This query returns all of the research cruises and their associated reference tables (e.g. Science Center, standard survey name, survey frequency, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. ESA species, primary survey categories, etc.) as well as all associated research cruise legs and their associated reference tables (e.g. Vessel, Platform Type, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. regional ecosystems, gear, regions, leg aliases, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_SUMM_ISS_V</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Cruise Summary and Associated Validation Issues (View)
 This view returns the Cruise summary data and associated validation issues from the DVM that have one or more validation errors/warnings</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_SUMM_V</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Research Cruise Leg Summary (View)
 This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_V</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Research Cruises (View)
 This query returns all of the research cruises and their associated reference tables (e.g. Science Center, standard survey name, survey frequency, etc.) as well as aggregate information from the associated cruise legs</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CEN_CRUISE.CCD_DATA_SETS_V</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Research Cruise Data Sets (View)</t>
-        </is>
-      </c>
-    </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.CCD_DATA_SETS_V</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Research Cruise Data Sets (View)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.CCD_GEAR_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Gear Preset Delimited Options (View)
 This view returns all Gear presets and delimited lists of associated Gear names</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_GEAR_PRE_V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Gear Presets (View)
 This view returns all gear presets and the associated gear information</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_DELIM_V</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Research Cruise Legs Delimited Reference Values (View)
 This query returns all of the research cruise legs and their associated reference tables (e.g. Vessel, Platform Type, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. regional ecosystems, gear, regions, leg aliases, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_V</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Research Cruise Legs (View)
 This query returns all research cruise legs and their associated reference tables</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_CRUISE_V</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Cruise (QC View)
 This query identifies data validation issues with Cruises (e.g. invalid standard survey name, invalid cruise name, etc.).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_LEG_ALIAS_V</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Leg Alias (QC View)
 This query identifies data validation issues with Cruise Leg Aliases (e.g. invalid alias name).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_LEG_OVERLAP_V</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Cruise Leg Overlap (QC View)
 This query identifies data validation issues based on the cruise leg dates (e.g. cruise legs overlap, vessel legs overlap).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_LEG_V</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Cruise Leg (QC View)
 This query identifies data validation issues with Cruise Legs (e.g. invalid leg dates, invalid leg name, etc.).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REGION_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Region Preset Delimited Options (View)
 This view returns all region presets and delimited lists of associated region names</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REGION_PRE_V</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Region Presets (View)
 This view returns all region presets and the associated region information</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REG_ECO_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Regional Ecosystem Preset Delimited Options (View)
 This view returns all regional ecosystem presets and delimited lists of associated regional ecosystem names</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REG_ECO_PRE_V</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Regional Ecosystem Presets (View)
 This view returns all regional ecosystem presets and the associated regional ecosystem information</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SCI_CENTER_DELIM_V</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Science Center Delimited Divisions (View)
 This view returns all Science Centers and delimited lists of associated divisions</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SCI_CENTER_DIV_V</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Science Center Divisions (View)
 This view returns all science centers and associated divisions</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_CAT_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Expected Species Categories Preset Delimited Options (View)
 This view returns all expected species category presets and delimited lists of associated expected species category names</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_CAT_PRE_V</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Expected Species Categories Presets (View)
 This view returns all Expected Species Categories Presets and the associated Expected Species Categories information</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_ESA_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>ESA Target Species Preset Delimited Options (View)
 This view returns all ESA Target Species presets and delimited lists of associated ESA Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_ESA_PRE_V</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>ESA Target Species Presets (View)
 This view returns all ESA Target Species Presets and the associated ESA Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>FSSI Target Species Preset Delimited Options (View)
 This view returns all FSSI Target Species presets and delimited lists of associated FSSI Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_V</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>FSSI Target Species Presets (View)
 This view returns all FSSI Target Species Presets and the associated FSSI Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>MMPA Target Species Preset Delimited Options (View)
 This view returns all MMPA Target Species presets and delimited lists of associated MMPA Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_V</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>MMPA Target Species Presets (View)
 This view returns all MMPA Target Species Presets and the associated MMPA Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SVY_CAT_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Survey Category Preset Delimited Options (View)
 This view returns all Survey Category presets and delimited lists of associated Survey Category names</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SVY_CAT_PRE_V</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Survey Category Presets (View)
 This view returns all primary and secondary survey category presets and the associated survey category information</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_LOG_ENTRIES_V</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Database Log Entries (View)
 This query returns all log entries stored in the DB_LOG_ENTRIES table that includes the associated DB_LOG_ENTRY_TYPES information for each log entry</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_UPGRADE_LOGS_V</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Database Upgrade Log (View)
 This view returns the log of all database upgrades applied to a given database ordered by the date the upgrade was released.  This view includes formatted upgrade release and upgrade application dates</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_CRITERIA_V</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Data Validation QC Criteria (View)
 This View returns all QC Criteria (Issue Types) defined in the database and their associated QC Object, Issue Severity, and Issue Category.  This query is used to define all PTA Issue Types when a data stream is first entered into the database</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_DATA_STREAMS_V</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Data Streams (View)
 This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary and determines if the parent table exists and if the parent table has been enabled in the DVM</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_DS_PTA_RULE_SETS_V</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DVM Data Stream PTA Rule Sets (View)
+This view returns PTA rule sets and associated data streams to provide information about which parent issue records have been evaluated with which rule sets</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_ISSUES_V</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>PTA Issues (View)
 This View returns all Validation Issues associated with a given PTA Validation Issue record that were identified during the last evaluation of the associated Validation Issue Types.  A PTA Validation Issue record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each issue identified as well as general information about the given Validation Issue's Issue Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_ISS_TYPES_V</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>PTA Issue Types (View)
 This View retrieves all Validation Rule Sets and corresponding Validation Rules for a given Parent Issue Record and corresponding data stream(s).  The associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Issue Types that were associated with the data stream when the given parent record is first evaluated using the DVM</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_PTA_RULE_SETS_RPT_V</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DVM PTA Rule Sets Report (View)
+This view returns the parent issue record information and their associated validation rule sets and corresponding validation criteria.  This standard report query can be combined with data set-specific information to generate a standard validation rule report that can be included with the data set metadata or as an internal report to provide the specific data quality control criteria that was used to validate each parent record if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_RULE_SETS_V</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>DVM PTA Rule Sets (View)
-This view returns all of the rule sets and associated data streams as well as all PTA rule sets to provide information about which parent issue records have been evaluated with which rule sets</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+This view returns all of the rule set information and related tables as well as associated data streams as well as all PTA rule sets to provide information about which parent issue records have been evaluated with which rule sets</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_QC_MSG_MISS_FIELDS_V</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Data Validation Module Missing Template Field References QC (View)
 This query returns all issue types (DVM_ISS_TYPES) that have a ISS_TYPE_COMMENT_TEMPLATE or APP_LINK_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary). The [APP_ID] and [APP_SESSION] are special reserved placeholders that are intended to be used by a given APEX application and replaced at runtime by the APEX application variables so they are not identified in this QC query.  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_ISS_DESC_FIELDS and MISSING_APP_LINK_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object for the issue description templates and application link templates respectively.</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_RULE_SETS_RPT_V</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Data Validation Rule Sets Report (View)
+This view returns a subset of the Data Validation Rule Sets (DVM_RULE_SETS_V) view suitable for inclusion in a report for which validation rule sets were active in which periods over time.  This query generates a standard validation rule report that can be included with the data set metadata to provide the specific data quality control criteria that was used to validate each data stream over time</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_RULE_SETS_V</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Data Validation Rule Sets (View)
 This View returns all Data Validation Rule Sets and associated validation criteria</t>

--- a/docs/centralized_cruise_DB_view_comments.xlsx
+++ b/docs/centralized_cruise_DB_view_comments.xlsx
@@ -116,597 +116,792 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>CEN_CRUISE.CCD_CCDP_DEEP_COPY_CMP_V</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cruise Oracle Package Deep Copy Procedure Verification Query (View)
+This verification query retrieves all cruise information and associated attributes and associated cruise legs and associated attributes for all deep copies of cruises based on the "(copy)" naming convention for cruise names, leg names, and leg alias names.  This view is utilized to determine if a given CCD_CRUISE_PKG.DEEP_COPY_CRUISE_SP procedure call was successful</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>CEN_CRUISE.CCD_CRUISE_DELIM_V</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Research Cruises Delimited Reference Values (View)
 This query returns all of the research cruises and their associated reference tables (e.g. Science Center, standard survey name, survey frequency, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. ESA species, primary survey categories, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_CRUISE_DVM_EVAL_RPT_V</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cruise DVM Validation Rule Set Evaluation History Report (View)
+This view returns the date/time for each time the DVM was processed (FORMAT_EVAL_DATE) on a given cruise record and associated data stream.  This query generates a standard validation rule set evaluation report that can be included with the data set metadata or as an internal report to provide the DVM rule set evaluation history for each cruise record if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_DVM_RULES_RPT_V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Cruise DVM Rules Report (View)
 This view returns all of the DVM PTA validation rule sets and all related validation rule set information and cruise information.  This query generates a standard validation rule report that can be included with the data set metadata or as an internal report to provide the specific data quality control criteria that was used to validate each cruise record if that level of detail is desired</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_DVM_RULES_V</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Cruise DVM Rules (View)
 This view returns all of the DVM PTA validation rule sets and all related validation rule set information and cruise information</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_CRUISE_DVM_RULE_EVAL_RPT_V</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cruise DVM Validation Rule Evaluation History Report (View)
+This view returns a subset of the fields in the rule sets and associated validation rule sets and corresponding specific validation rules and data stream information for each date/time the DVM was processed (EVAL_DATE) on a given cruise record.  This standard detailed report query can be included with the data set metadata or as an internal report to provide information about each time the DVM was evaluated for which specific validation rules on a given cruise for each data stream if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.CCD_CRUISE_DVM_RULE_EVAL_V</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cruise DVM Validation Rule Evaluation History (View)
+This view returns rule sets and associated validation rule sets and corresponding specific validation rules and data stream information for each date/time the DVM was processed (EVAL_DATE) on a given cruise record.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_ISS_SUMM_V</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Research Cruise Leg Validation Issue Summary (View)
-This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions).  This view also contains summary information for any associated QC validation issues in the categories of warnings, active errors and annotated errors</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions).  This view also contains summary information for any associated QC validation issues in the categories of active warnings, annotated warnings, active errors, and annotated errors</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_LEGS_V</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Research Cruises and Associated Cruise Legs (View)
 This query returns all research cruise legs and their associated reference tables as well as all associated cruise legs with their associated reference tables</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_LEG_DELIM_V</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Research Cruises and Associated Legs with Delimited Reference Values (View)
 This query returns all of the research cruises and their associated reference tables (e.g. Science Center, standard survey name, survey frequency, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. ESA species, primary survey categories, etc.) as well as all associated research cruise legs and their associated reference tables (e.g. Vessel, Platform Type, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. regional ecosystems, gear, regions, leg aliases, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_SUMM_ISS_V</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Cruise Summary and Associated Validation Issues (View)
 This view returns the Cruise summary data and associated validation issues from the DVM that have one or more validation errors/warnings</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_SUMM_V</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Research Cruise Leg Summary (View)
 This query returns all of the research cruises and all associated comma-/semicolon-delimited list of associated reference values.  The aggregate cruise leg information is included as start and end dates and the number of legs defined for the given cruise (if any) as well as all associated comma-/semicolon-delimited unique list of associated reference values (regional ecosystems, gear, regions)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_CRUISE_V</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Research Cruises (View)
 This query returns all of the research cruises and their associated reference tables (e.g. Science Center, standard survey name, survey frequency, etc.) as well as aggregate information from the associated cruise legs</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_DATA_SETS_V</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Research Cruise Data Sets (View)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_GEAR_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Gear Preset Delimited Options (View)
 This view returns all Gear presets and delimited lists of associated Gear names</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_GEAR_PRE_V</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Gear Presets (View)
 This view returns all gear presets and the associated gear information</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_DELIM_V</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Research Cruise Legs Delimited Reference Values (View)
 This query returns all of the research cruise legs and their associated reference tables (e.g. Vessel, Platform Type, etc.) as well as the comma-/semicolon-delimited list of associated reference values (e.g. regional ecosystems, gear, regions, leg aliases, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_LEG_V</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Research Cruise Legs (View)
 This query returns all research cruise legs and their associated reference tables</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_CRUISE_V</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Cruise (QC View)
 This query identifies data validation issues with Cruises (e.g. invalid standard survey name, invalid cruise name, etc.).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_LEG_ALIAS_V</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Leg Alias (QC View)
 This query identifies data validation issues with Cruise Leg Aliases (e.g. invalid alias name).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_LEG_OVERLAP_V</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Cruise Leg Overlap (QC View)
 This query identifies data validation issues based on the cruise leg dates (e.g. cruise legs overlap, vessel legs overlap).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_QC_LEG_V</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Cruise Leg (QC View)
 This query identifies data validation issues with Cruise Legs (e.g. invalid leg dates, invalid leg name, etc.).  This QC View is implemented in the Data Validation Module</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REGION_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Region Preset Delimited Options (View)
 This view returns all region presets and delimited lists of associated region names</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REGION_PRE_V</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Region Presets (View)
 This view returns all region presets and the associated region information</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REG_ECO_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Regional Ecosystem Preset Delimited Options (View)
 This view returns all regional ecosystem presets and delimited lists of associated regional ecosystem names</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_REG_ECO_PRE_V</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Regional Ecosystem Presets (View)
 This view returns all regional ecosystem presets and the associated regional ecosystem information</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SCI_CENTER_DELIM_V</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Science Center Delimited Divisions (View)
 This view returns all Science Centers and delimited lists of associated divisions</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SCI_CENTER_DIV_V</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Science Center Divisions (View)
 This view returns all science centers and associated divisions</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_CAT_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Expected Species Categories Preset Delimited Options (View)
 This view returns all expected species category presets and delimited lists of associated expected species category names</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_CAT_PRE_V</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Expected Species Categories Presets (View)
 This view returns all Expected Species Categories Presets and the associated Expected Species Categories information</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_ESA_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>ESA Target Species Preset Delimited Options (View)
 This view returns all ESA Target Species presets and delimited lists of associated ESA Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_ESA_PRE_V</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>ESA Target Species Presets (View)
 This view returns all ESA Target Species Presets and the associated ESA Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>FSSI Target Species Preset Delimited Options (View)
 This view returns all FSSI Target Species presets and delimited lists of associated FSSI Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_FSSI_PRE_V</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>FSSI Target Species Presets (View)
 This view returns all FSSI Target Species Presets and the associated FSSI Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>MMPA Target Species Preset Delimited Options (View)
 This view returns all MMPA Target Species presets and delimited lists of associated MMPA Target Species names</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SPP_MMPA_PRE_V</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>MMPA Target Species Presets (View)
 This view returns all MMPA Target Species Presets and the associated MMPA Target Species information</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SVY_CAT_PRE_DELIM_V</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Survey Category Preset Delimited Options (View)
 This view returns all Survey Category presets and delimited lists of associated Survey Category names</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>CEN_CRUISE.CCD_SVY_CAT_PRE_V</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Survey Category Presets (View)
 This view returns all primary and secondary survey category presets and the associated survey category information</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_LOG_ENTRIES_V</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Database Log Entries (View)
 This query returns all log entries stored in the DB_LOG_ENTRIES table that includes the associated DB_LOG_ENTRY_TYPES information for each log entry</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DB_UPGRADE_LOGS_V</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Database Upgrade Log (View)
 This view returns the log of all database upgrades applied to a given database ordered by the date the upgrade was released.  This view includes formatted upgrade release and upgrade application dates</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_CRITERIA_V</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Data Validation QC Criteria (View)
-This View returns all QC Criteria (Issue Types) defined in the database and their associated QC Object, Issue Severity, and Issue Category.  This query is used to define all PTA Issue Types when a data stream is first entered into the database</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+This View returns all data QC Criteria (Issue Types) defined in the database and their associated QC Object, Issue Severity, and Issue Category.  This query is used to define all PTA Issue Types when a data stream is first entered into the database</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_DATA_STREAMS_V</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Data Streams (View)
-This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary and determines if the parent table exists and if the parent table has been enabled in the DVM</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+This query returns all data streams that are implemented in the data validation module.  Examples of data streams are RPL, eTunaLog, UL, FOT, LFSC.  This is used to filter error records based on the given context of the processing/validation.  This view also returns the PK field name for each of the data streams based on the value of DATA_STREAM_PAR_TABLE using the current schema's data dictionary and determines if the parent table exists and if the parent table has been enabled in the DVM.  If the parent table does not have a primary key or has a compound primary key the DATA_STREAM_PK_FIELD field will be null</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_DS_PTA_RULE_SETS_HIST_V</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DVM Validation Rule Set Evaluation History (View)
+This view returns the date/time for each time the DVM was processed (FORMAT_EVAL_DATE) on a given parent record and associated data stream.  This query can be combined with data set-specific information to generate a standard DVM evaluation report that can be included with the data set metadata or as an internal report to provide the DVM rule set evaluation history for each parent record if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_DS_PTA_RULE_SETS_V</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>DVM Data Stream PTA Rule Sets (View)
 This view returns PTA rule sets and associated data streams to provide information about which parent issue records have been evaluated with which rule sets</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_ISSUES_V</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>PTA Issues (View)
 This View returns all Validation Issues associated with a given PTA Validation Issue record that were identified during the last evaluation of the associated Validation Issue Types.  A PTA Validation Issue record can be referenced by any data table that represents the parent record for a given data stream (e.g. SPT_VESSEL_TRIPS for RPL data).  The query returns detailed information about the specifics of each issue identified as well as general information about the given Validation Issue's Issue Type.  Each associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_ISS_TYPES_V</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>PTA Issue Types (View)
 This View retrieves all Validation Rule Sets and corresponding Validation Rules for a given Parent Issue Record and corresponding data stream(s).  The associated date/time is provided as a standard formatted date in MM/DD/YYYY HH24:MI format.  This relationship is used to determine the Issue Types that were associated with the data stream when the given parent record is first evaluated using the DVM</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_PTA_RULE_SETS_HIST_RPT_V</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DVM PTA Validation Rule Evaluation History Report (View)
+This view returns a subset of fields from the PTA rule sets and associated validation rule sets and corresponding specific validation rules and data stream information for each date/time the DVM was processed (EVAL_DATE) on a given parent record.  This standard detailed report query can be combined with data set-specific information to generate a standard detailed DVM evaluation report that can be included with the data set metadata or as an internal report to provide information about each time the DVM was evaluated for which specific validation rules on a given parent record for each data stream if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_PTA_RULE_SETS_HIST_V</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DVM PTA Validation Rule Evaluation History (View)
+This view returns PTA rule sets and associated validation rule sets and corresponding specific validation rules and data stream information for each date/time the DVM was processed (EVAL_DATE) on a given parent record.  This standard detailed report query can be combined with data set-specific information to generate a standard detailed DVM evaluation report that can be included with the data set metadata or as an internal report to provide information about each time the DVM was evaluated for which specific validation rules on a given parent record for each data stream if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_RULE_SETS_RPT_V</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>DVM PTA Rule Sets Report (View)
-This view returns the parent issue record information and their associated validation rule sets and corresponding validation criteria.  This standard report query can be combined with data set-specific information to generate a standard validation rule report that can be included with the data set metadata or as an internal report to provide the specific data quality control criteria that was used to validate each parent record if that level of detail is desired</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+This view returns the parent issue record information and their associated validation rule sets and corresponding validation rules.  This standard report query can be combined with data set-specific information to generate a standard validation rule report that can be included with the data set metadata or as an internal report to provide the specific data quality control criteria that was used to validate each parent record if that level of detail is desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_PTA_RULE_SETS_V</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>DVM PTA Rule Sets (View)
 This view returns all of the rule set information and related tables as well as associated data streams as well as all PTA rule sets to provide information about which parent issue records have been evaluated with which rule sets</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_QC_MSG_MISS_FIELDS_V</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Data Validation Module Missing Template Field References QC (View)
 This query returns all issue types (DVM_ISS_TYPES) that have a ISS_TYPE_COMMENT_TEMPLATE or APP_LINK_TEMPLATE value that is missing one or more field references in the corresponding QC View object (based on the data dictionary). The [APP_ID] and [APP_SESSION] are special reserved placeholders that are intended to be used by a given APEX application and replaced at runtime by the APEX application variables so they are not identified in this QC query.  This View should be used to identify if there are any field references that will not be populated by the Data Validation Module.  MISSING_ISS_DESC_FIELDS and MISSING_APP_LINK_FIELDS will contain a comma-delimited list of field references that are not in the corresponding QC View object for the issue description templates and application link templates respectively.</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_RULE_SETS_RPT_V</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Data Validation Rule Sets Report (View)
 This view returns a subset of the Data Validation Rule Sets (DVM_RULE_SETS_V) view suitable for inclusion in a report for which validation rule sets were active in which periods over time.  This query generates a standard validation rule report that can be included with the data set metadata to provide the specific data quality control criteria that was used to validate each data stream over time</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>CEN_CRUISE.DVM_RULE_SETS_V</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Data Validation Rule Sets (View)
 This View returns all Data Validation Rule Sets and associated validation criteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_STD_QC_ACT_RULE_SETS_V</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DVM Standard Configuration QC Active Validation Rules/Rule Sets Query (Standard QC View)
+This DVM configuration QC view identifies all data streams with more than one active validation rule set (there should always only be one active rule set for each data stream).  This configuration QC view also identifies all data streams with no active validation rules (in order to execute the DVM on a data stream on a new parent table there must be at least one active validation rule).  This configuration QC view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_STD_QC_ALL_RPT_V</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DVM Standard Configuration QC Combined Report (Standard QC View)
+This DVM configuration QC view identifies all of the DVM configuration errors that can be feasibly identified by views to help ensure that the DVM configuration is valid to help ensure the DVM functions properly.  Any rows returned by this view will need to be resolved before the DVM can process records successfully.  This configuration QC view contains two columns to identify the configuration issue(s) and is intended to provide administrators the results of preliminary validation checks on the DVM configuration.  If this configuration QC view does not execute successfully it is likely due to an invalid view and the ORA-20220 exception should be reported until the data QC view errors have been resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_STD_QC_DS_V</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DVM Standard Configuration QC Data Stream Parent Table Query (Standard QC View)
+This DVM Configuration QC view identifies all instances of data streams with invalid values.  This view leverages the DVM_DATA_STREAMS_V view and uses the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_STD_QC_DS_VIEWS_V</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DVM Standard Data Stream Parent Table Data QC View  Query (Standard QC View)
+This Data QC View Primary Key QC view identifies all Data QC Views that do not contain the primary key field of the associated parent table, this will prevent the data QC view from being processed successfully.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_STD_QC_IND_FIELDS_V</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DVM Standard Indicator Field Data QC Object Query (Standard QC View)
+This DVM configuration QC view identifies all validation rules that have an indicator field defined that does not match a corresponding data QC view object's result set field or it has a non-character data type.  This view uses the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_STD_QC_ISS_TEMPL_V</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DVM Standard Configuration QC Issue Type Template Placeholders Query (Standard QC View)
+This DVM configuration QC view identifies all Validation Issue Types configured in the DVM that have one or more placeholders in the issue description template or application link template values that do not exist in the corresponding DVM data QC view.  This configuration QC view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_STD_QC_MISS_CONFIG_V</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DVM Standard Configuration QC Missing Data Streams/Validation Rules Query (Standard QC View)
+This DVM configuration QC view identifies when there are no data streams (DVM_DATA_STREAMS) or validation rules (DVM_ISS_TYPES) records defined in the database, this indicates that the DVM instance has not been configured yet.  The DVM requires at least one data stream and one validation rule to be defined before the DVM can be executed.  This configuration QC view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CEN_CRUISE.DVM_STD_QC_VIEW_V</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DVM Standard Configuration QC data QC Object Query (Standard QC View)
+This DVM configuration QC view identifies all data QC objects configured in the DVM that are either missing or are invalid.  This configuration QC view utilizes the UNPIVOT function to split each identified issue into separate rows so they can be reported separately.  The configuration QC view contains two columns that are intended for UNION with other DVM Configuration QC views to provide administrators the results of preliminary validation checks on the DVM configuration.</t>
         </is>
       </c>
     </row>
